--- a/notebooks/Data/2Nodes/edges.xlsx
+++ b/notebooks/Data/2Nodes/edges.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfuentes/ASL/code/routing-framework/Tests_routing_alternatives/notebooks/Data/2Nodes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfuentes/ASL/ICU/notebooks/Data/2Nodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{49B7DE2B-E56D-9C4D-B40B-64301172B912}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B33CF-82C1-B446-888C-2FC928A1CCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>head</t>
   </si>
@@ -37,13 +47,16 @@
     <t>time</t>
   </si>
   <si>
-    <t>is negative</t>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>isnegative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -877,16 +890,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,10 +916,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -925,8 +941,11 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -943,6 +962,9 @@
         <v>10</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
     </row>

--- a/notebooks/Data/2Nodes/edges.xlsx
+++ b/notebooks/Data/2Nodes/edges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfuentes/ASL/ICU/notebooks/Data/2Nodes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81B33CF-82C1-B446-888C-2FC928A1CCD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E520CD96-A9FE-0140-8D16-09C0D41FFC16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="12140" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edges" sheetId="1" r:id="rId1"/>
@@ -894,7 +894,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
